--- a/database/industries/folad/kave/product/yearly_seprated.xlsx
+++ b/database/industries/folad/kave/product/yearly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\kave\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\kave\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F8D76A-D510-475C-8F65-805DFA33F822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9420"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -171,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,7 +359,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -370,7 +371,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -417,6 +418,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -452,6 +470,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -603,17 +638,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -623,7 +658,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -635,7 +670,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -647,7 +682,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -657,7 +692,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -669,7 +704,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -681,7 +716,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -691,7 +726,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -713,7 +748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -723,7 +758,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -735,7 +770,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -759,7 +794,7 @@
         <v>481883</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
@@ -783,7 +818,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>15</v>
       </c>
@@ -805,7 +840,7 @@
         <v>484881</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -817,7 +852,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>11</v>
       </c>
@@ -841,7 +876,7 @@
         <v>933796</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>14</v>
       </c>
@@ -865,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>17</v>
       </c>
@@ -887,7 +922,7 @@
         <v>933796</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
@@ -899,7 +934,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
@@ -923,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>20</v>
       </c>
@@ -945,7 +980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>21</v>
       </c>
@@ -969,7 +1004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>23</v>
       </c>
@@ -991,7 +1026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>24</v>
       </c>
@@ -1013,7 +1048,7 @@
         <v>1418677</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1023,7 +1058,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1033,7 +1068,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1043,7 +1078,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>25</v>
       </c>
@@ -1065,7 +1100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1075,7 +1110,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>26</v>
       </c>
@@ -1087,7 +1122,7 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>11</v>
       </c>
@@ -1111,7 +1146,7 @@
         <v>60340966</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
         <v>14</v>
       </c>
@@ -1135,7 +1170,7 @@
         <v>254801</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="14" t="s">
         <v>15</v>
       </c>
@@ -1157,7 +1192,7 @@
         <v>60595767</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>28</v>
       </c>
@@ -1169,7 +1204,7 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>11</v>
       </c>
@@ -1193,7 +1228,7 @@
         <v>127452485</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="12" t="s">
         <v>14</v>
       </c>
@@ -1217,7 +1252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="14" t="s">
         <v>17</v>
       </c>
@@ -1239,7 +1274,7 @@
         <v>127452485</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>29</v>
       </c>
@@ -1251,7 +1286,7 @@
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>19</v>
       </c>
@@ -1275,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="16" t="s">
         <v>20</v>
       </c>
@@ -1297,7 +1332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="14" t="s">
         <v>21</v>
       </c>
@@ -1321,7 +1356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="16" t="s">
         <v>23</v>
       </c>
@@ -1345,7 +1380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
         <v>24</v>
       </c>
@@ -1367,7 +1402,7 @@
         <v>188048252</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1377,7 +1412,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1387,7 +1422,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1397,7 +1432,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>30</v>
       </c>
@@ -1419,7 +1454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1429,7 +1464,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>31</v>
       </c>
@@ -1441,7 +1476,7 @@
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>11</v>
       </c>
@@ -1465,7 +1500,7 @@
         <v>125219122</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>14</v>
       </c>
@@ -1489,7 +1524,7 @@
         <v>84990327</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>33</v>
       </c>
@@ -1501,7 +1536,7 @@
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>11</v>
       </c>
@@ -1525,7 +1560,7 @@
         <v>136488575</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
         <v>14</v>
       </c>
@@ -1549,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>34</v>
       </c>
@@ -1561,7 +1596,7 @@
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>19</v>
       </c>
@@ -1585,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1595,7 +1630,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1605,7 +1640,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1615,7 +1650,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>35</v>
       </c>
@@ -1637,7 +1672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1647,7 +1682,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>36</v>
       </c>
@@ -1659,7 +1694,7 @@
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>11</v>
       </c>
@@ -1683,7 +1718,7 @@
         <v>-51357636</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="12" t="s">
         <v>14</v>
       </c>
@@ -1707,7 +1742,7 @@
         <v>-187569</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="14" t="s">
         <v>37</v>
       </c>
@@ -1729,7 +1764,7 @@
         <v>-51545205</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>38</v>
       </c>
@@ -1741,7 +1776,7 @@
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>11</v>
       </c>
@@ -1765,7 +1800,7 @@
         <v>-99521078</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
         <v>14</v>
       </c>
@@ -1789,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="14" t="s">
         <v>39</v>
       </c>
@@ -1811,7 +1846,7 @@
         <v>-99521078</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>40</v>
       </c>
@@ -1823,7 +1858,7 @@
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>19</v>
       </c>
@@ -1847,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="16" t="s">
         <v>41</v>
       </c>
@@ -1869,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="14" t="s">
         <v>21</v>
       </c>
@@ -1893,7 +1928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="16" t="s">
         <v>23</v>
       </c>
@@ -1917,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="14" t="s">
         <v>24</v>
       </c>
@@ -1939,7 +1974,7 @@
         <v>-151066283</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1949,7 +1984,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1959,7 +1994,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -1969,7 +2004,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B78" s="7" t="s">
         <v>42</v>
       </c>
@@ -1991,7 +2026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2001,7 +2036,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>43</v>
       </c>
@@ -2013,7 +2048,7 @@
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>11</v>
       </c>
@@ -2037,7 +2072,7 @@
         <v>8983330</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="12" t="s">
         <v>14</v>
       </c>
@@ -2061,7 +2096,7 @@
         <v>67232</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="14" t="s">
         <v>44</v>
       </c>
@@ -2083,7 +2118,7 @@
         <v>9050562</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>45</v>
       </c>
@@ -2095,7 +2130,7 @@
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>11</v>
       </c>
@@ -2119,7 +2154,7 @@
         <v>27931407</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>14</v>
       </c>
@@ -2143,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>46</v>
       </c>
@@ -2165,7 +2200,7 @@
         <v>27931407</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>47</v>
       </c>
@@ -2177,7 +2212,7 @@
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>19</v>
       </c>
@@ -2201,7 +2236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="16" t="s">
         <v>48</v>
       </c>
@@ -2223,7 +2258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="14" t="s">
         <v>24</v>
       </c>
